--- a/Output/Avril_2004 Avril 2004 OS Non_DTIC parameters.xlsx
+++ b/Output/Avril_2004 Avril 2004 OS Non_DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.57824772385901</v>
+        <v>-2.49972872840229</v>
       </c>
       <c r="C2" t="n">
-        <v>0.125256517287666</v>
+        <v>0.122057447093382</v>
       </c>
       <c r="D2" t="n">
         <v>738.197785132341</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0468565894924138</v>
+        <v>0.0391414385130606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05928365352867</v>
+        <v>0.0517908396172799</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0046720337807</v>
+        <v>1.93563637872471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.150216926418198</v>
+        <v>0.121436695299748</v>
       </c>
       <c r="D2" t="n">
         <v>719.968539088191</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.992824174200785</v>
+        <v>-0.991804474991053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0678852275553906</v>
+        <v>0.0583512054430059</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.99340653773269</v>
+        <v>-1.93060133863177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0976327313995331</v>
+        <v>0.102811464864021</v>
       </c>
       <c r="D2" t="n">
         <v>721.940114280082</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.71303918195678</v>
+        <v>1.71540910960479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.134327318012769</v>
+        <v>0.128615701649951</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.3636120790641</v>
+        <v>-2.29339372378354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.126087808930259</v>
+        <v>0.132301106530333</v>
       </c>
       <c r="D2" t="n">
         <v>736.966428688954</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0125577421591243</v>
+        <v>-0.013784129933345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00856252069692879</v>
+        <v>0.00673971626319614</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0156891951230354</v>
+        <v>0.0148980203909537</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00425682222495584</v>
+        <v>-0.00257155016007909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00425682222495584</v>
+        <v>-0.00257155016007909</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00351455157570738</v>
+        <v>0.00268229106826281</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0225651249825304</v>
+        <v>0.0147468709653237</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00802013418412126</v>
+        <v>-0.00444446528904442</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00802013418412126</v>
+        <v>-0.00444446528904442</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00460840412024716</v>
+        <v>0.00340486317665188</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00953215024053337</v>
+        <v>0.0105701973074859</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00295229503785695</v>
+        <v>0.00506328286632033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00295229503785695</v>
+        <v>0.00506328286632033</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0180438283645037</v>
+        <v>0.0165419987109093</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0158981355608334</v>
+        <v>0.0175035827891505</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000677055669639301</v>
+        <v>-0.00054132285507576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000677055669639301</v>
+        <v>-0.00054132285507576</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0000733167606853339</v>
+        <v>0.0000454237753083905</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Avril_2004 Avril 2004 OS Non_DTIC parameters.xlsx
+++ b/Output/Avril_2004 Avril 2004 OS Non_DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.49972872840229</v>
+        <v>-2.57824772385901</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122057447093382</v>
+        <v>0.125256517287666</v>
       </c>
       <c r="D2" t="n">
         <v>738.197785132341</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0391414385130606</v>
+        <v>0.0468565894924138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0517908396172799</v>
+        <v>0.05928365352867</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.93563637872471</v>
+        <v>2.0046720337807</v>
       </c>
       <c r="C2" t="n">
-        <v>0.121436695299748</v>
+        <v>0.150216926418198</v>
       </c>
       <c r="D2" t="n">
         <v>719.968539088191</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.991804474991053</v>
+        <v>-0.992824174200785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0583512054430059</v>
+        <v>0.0678852275553906</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.93060133863177</v>
+        <v>-1.99340653773269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.102811464864021</v>
+        <v>0.0976327313995331</v>
       </c>
       <c r="D2" t="n">
         <v>721.940114280082</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.71540910960479</v>
+        <v>0.535253073568705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.128615701649951</v>
+        <v>0.0774279575833975</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.29339372378354</v>
+        <v>-2.3636120790641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.132301106530333</v>
+        <v>0.126087808930259</v>
       </c>
       <c r="D2" t="n">
         <v>736.966428688954</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.013784129933345</v>
+        <v>-0.0125577421591243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00673971626319614</v>
+        <v>0.00856252069692879</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0148980203909537</v>
+        <v>0.0156891951230354</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00257155016007909</v>
+        <v>-0.00425682222495584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00257155016007909</v>
+        <v>-0.00425682222495584</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00268229106826281</v>
+        <v>0.00351455157570738</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0147468709653237</v>
+        <v>0.0225651249825304</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00444446528904442</v>
+        <v>-0.00802013418412126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00444446528904442</v>
+        <v>-0.00802013418412126</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00340486317665188</v>
+        <v>0.00460840412024716</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0105701973074859</v>
+        <v>0.00953215024053337</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00506328286632033</v>
+        <v>0.0017118540801892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00506328286632033</v>
+        <v>0.0017118540801892</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0165419987109093</v>
+        <v>0.00599508861553641</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0175035827891505</v>
+        <v>0.0158981355608334</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00054132285507576</v>
+        <v>-0.000677055669639301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00054132285507576</v>
+        <v>-0.000677055669639301</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0000454237753083905</v>
+        <v>0.0000733167606853339</v>
       </c>
     </row>
   </sheetData>
